--- a/outputs-r202/g__RUG099.xlsx
+++ b/outputs-r202/g__RUG099.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -673,6 +678,11 @@
           <t>s__RUG099 sp902778585</t>
         </is>
       </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp902778585(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -766,6 +776,11 @@
           <t>s__RUG099 sp900318105</t>
         </is>
       </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp900318105(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -859,6 +874,11 @@
           <t>s__RUG099 sp900317675</t>
         </is>
       </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp900317675</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -952,6 +972,11 @@
           <t>s__RUG099 sp900318105</t>
         </is>
       </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp900318105</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1045,6 +1070,11 @@
           <t>s__RUG099 sp900320285</t>
         </is>
       </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp900320285</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1134,6 +1164,11 @@
         <v>0.9999999491273146</v>
       </c>
       <c r="AC7" t="inlineStr">
+        <is>
+          <t>s__RUG099 sp900317675</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>s__RUG099 sp900317675</t>
         </is>

--- a/outputs-r202/g__RUG099.xlsx
+++ b/outputs-r202/g__RUG099.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,582 +593,484 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.348857945867532e-05</v>
+        <v>6.683151832595152e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>4.348857945867532e-05</v>
+        <v>6.683151832595152e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>4.348857945867524e-05</v>
+        <v>6.683151832595152e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1994565702882481</v>
+        <v>0.7364598010226139</v>
       </c>
       <c r="F2" t="n">
-        <v>4.348857945867532e-05</v>
+        <v>6.683151832595156e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>4.348857945867535e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2825568093651139</v>
+        <v>0.06796325958147863</v>
       </c>
       <c r="I2" t="n">
-        <v>4.348857945867535e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>4.348857945867535e-05</v>
+        <v>6.683151832595155e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>4.348857945867543e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5169863830190883</v>
+        <v>0.1955754022709871</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.348857945867543e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595137e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>4.34885794586754e-05</v>
+        <v>6.683151832595155e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595147e-08</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.34885794586755e-05</v>
+        <v>6.683151832595152e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5169863830190883</v>
+        <v>0.7364598010226139</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>s__RUG099 sp902778585</t>
+          <t>s__RUG099 sp900315485</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>s__RUG099 sp902778585(reject)</t>
+          <t>s__RUG099 sp900315485</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG114.fasta</t>
+          <t>RUG321.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>0.9999999999913319</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2967126880450326</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2395568948625869</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2808321839685326</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>7.619917518332663e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1820456685345663</v>
+        <v>8.135148663353635e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>7.619917518332668e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>7.619917518332668e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0008365627624918903</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.61991751833266e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>7.619917518332668e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.619917518332651e-07</v>
+        <v>2.220446049249528e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2967126880450326</v>
+        <v>0.9999999999913319</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900318105</t>
+          <t>s__RUG099 sp900317675</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900318105(reject)</t>
+          <t>s__RUG099 sp900317675</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG321.fasta</t>
+          <t>RUG349.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999198021556</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>0.9997708341517779</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>0.0002074335400597925</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>8.019731134720606e-08</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.173230765154445e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220446042401232e-14</v>
+        <v>2.220426491377701e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9999999198021556</v>
+        <v>0.9997708341517779</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900317675</t>
+          <t>s__RUG099 sp900318105</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900317675</t>
+          <t>s__RUG099 sp900318105</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG349.fasta</t>
+          <t>RUG576.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999993597908942</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>6.042850751074713e-07</v>
+        <v>0.9999999992519315</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.482676824351997e-12</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>3.592205962637411e-08</v>
+        <v>7.47535635793082e-10</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628808e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220445994575384e-14</v>
+        <v>2.221162976628809e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9999993597908942</v>
+        <v>0.9999999992519315</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900318105</t>
+          <t>s__RUG099 sp900320285</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900318105</t>
+          <t>s__RUG099 sp900320285</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG576.fasta</t>
+          <t>RUG792.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>0.9999999999980203</v>
       </c>
       <c r="G6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999277346469427</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>1.446880971897545e-12</v>
       </c>
       <c r="M6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.225307658628935e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>7.22653525238986e-05</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.225307658628935e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.225307658628936e-14</v>
+        <v>2.220446049250099e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9999277346469427</v>
+        <v>0.9999999999980203</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900320285</t>
+          <t>s__RUG099 sp900317675</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
-        <is>
-          <t>s__RUG099 sp900320285</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG792.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9999999491273146</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.087215256136913e-08</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.220446044905652e-14</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.9999999491273146</v>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>s__RUG099 sp900317675</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
         <is>
           <t>s__RUG099 sp900317675</t>
         </is>
